--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value95.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value95.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.024646995988952</v>
+        <v>2.066364526748657</v>
       </c>
       <c r="B1">
-        <v>1.453466463952987</v>
+        <v>5.019322395324707</v>
       </c>
       <c r="C1">
-        <v>2.706079445865295</v>
+        <v>3.227057695388794</v>
       </c>
       <c r="D1">
-        <v>4.811170738549133</v>
+        <v>2.293357610702515</v>
       </c>
       <c r="E1">
-        <v>1.065717227512849</v>
+        <v>2.003292560577393</v>
       </c>
     </row>
   </sheetData>
